--- a/AHP/3_AHP_Template.xlsx
+++ b/AHP/3_AHP_Template.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rosilene\Documents\Trabalho\PUC\BES\Aulas_2024_2\BES_GesPortifólio\Aulas\Artefatos - GPP_TI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9881BCB-3C54-4190-AE67-591D56C7F74A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D33AA1-0347-4261-8E47-2EF75B8DC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Critérios " sheetId="10" r:id="rId1"/>
     <sheet name="Priorização dos Projetos" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Avaliação</t>
   </si>
@@ -108,9 +114,6 @@
     <t>Projeto</t>
   </si>
   <si>
-    <t>Novos Mercados</t>
-  </si>
-  <si>
     <t>Pesos de cada critério</t>
   </si>
   <si>
@@ -126,52 +129,49 @@
     <t>Critério 05</t>
   </si>
   <si>
-    <t>Formando Novos Líderes</t>
-  </si>
-  <si>
-    <t>Novo Sistema de Compras</t>
-  </si>
-  <si>
-    <t>Sistema de ERP</t>
-  </si>
-  <si>
-    <t>Sistema de Call Center</t>
-  </si>
-  <si>
-    <t>Soluções Mobile</t>
-  </si>
-  <si>
-    <t>Escritório de Projetos Corporativo</t>
-  </si>
-  <si>
-    <t>Lean Six Sigma</t>
-  </si>
-  <si>
-    <t>Treinamento em Segurança do Trabalho</t>
-  </si>
-  <si>
     <t>Critério 06</t>
   </si>
   <si>
     <t>Fazer a comparação em pares utilizando a escala ao lado.</t>
   </si>
   <si>
-    <t>Alinhamento com a Estratégia</t>
-  </si>
-  <si>
     <t>Retorno sobre investimento</t>
   </si>
   <si>
-    <t>Duração Estimada</t>
-  </si>
-  <si>
     <t>Custo Estimado</t>
   </si>
   <si>
-    <t>Necessidade de Recursos Ext.</t>
-  </si>
-  <si>
-    <t>Complexidade</t>
+    <t>Impacto no Cliente</t>
+  </si>
+  <si>
+    <t>Risco e viabilidade</t>
+  </si>
+  <si>
+    <t>Alinhamento com os Objetivos Estratégicos</t>
+  </si>
+  <si>
+    <t>Inovação e diferenciação</t>
+  </si>
+  <si>
+    <t>Alinhamento com objetivos estrategicos</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
+  <si>
+    <t>Projeto de pesquisa e melhoria continuo dos processos</t>
+  </si>
+  <si>
+    <t>Laboratorio de Inovacao para engenharia de Software</t>
+  </si>
+  <si>
+    <t>Plataforma de automacao de testes de software</t>
+  </si>
+  <si>
+    <t>Plataforma de gestao de requisitos</t>
+  </si>
+  <si>
+    <t>Plataforma de treinamento para equipes de desenvolvimento</t>
   </si>
 </sst>
 </file>
@@ -179,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -230,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,22 +354,22 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -383,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -392,8 +398,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,10 +421,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -427,12 +433,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -451,7 +459,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -469,7 +477,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,6 +499,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela157" displayName="Tabela157" ref="J2:L8" totalsRowShown="0">
   <tableColumns count="3">
@@ -503,9 +515,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,9 +555,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -578,26 +590,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,26 +625,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,26 +803,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.140625" customWidth="1"/>
-    <col min="10" max="10" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="2" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
@@ -852,7 +830,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,10 +850,10 @@
         <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
@@ -888,9 +866,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -899,10 +877,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="6">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
         <v>6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>3</v>
       </c>
       <c r="F3" s="6">
         <v>6</v>
@@ -911,7 +889,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
@@ -924,30 +902,30 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="6">
-        <v>0.16700000000000001</v>
+        <v>0.111</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>1</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="F4" s="6">
-        <v>0.16700000000000001</v>
+        <v>3</v>
       </c>
       <c r="G4" s="6">
-        <v>0.33300000000000002</v>
+        <v>3</v>
       </c>
       <c r="H4" s="6">
-        <v>0.111</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
@@ -960,30 +938,30 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="6">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D5" s="40">
+        <v>3</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6">
         <v>3</v>
       </c>
       <c r="H5" s="6">
-        <v>0.16700000000000001</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
@@ -996,9 +974,9 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -1007,10 +985,10 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="D6" s="6">
-        <v>6</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E6" s="6">
-        <v>0.33300000000000002</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1032,18 +1010,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6">
         <v>0.111</v>
       </c>
       <c r="D7" s="6">
-        <v>3</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E7" s="6">
         <v>0.33300000000000002</v>
@@ -1055,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>3</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
@@ -1068,27 +1046,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6">
-        <v>1</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>9</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E8" s="6">
-        <v>6</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="F8" s="6">
         <v>6</v>
       </c>
       <c r="G8" s="6">
-        <v>0.33300000000000002</v>
+        <v>6</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
@@ -1104,36 +1082,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C9" s="28">
         <f t="shared" ref="C9:H9" si="0">SUM(C3:C8)</f>
-        <v>2.778</v>
+        <v>1.7230000000000001</v>
       </c>
       <c r="D9" s="28">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13.999000000000001</v>
       </c>
       <c r="E9" s="28">
         <f t="shared" si="0"/>
-        <v>11.666</v>
+        <v>8</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>22.332999999999998</v>
       </c>
       <c r="G9" s="28">
         <f t="shared" si="0"/>
-        <v>16.665999999999997</v>
+        <v>25</v>
       </c>
       <c r="H9" s="28">
         <f t="shared" si="0"/>
-        <v>5.4450000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16.334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1124,7 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1163,108 +1141,108 @@
         <v>15</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="str">
         <f t="shared" ref="B14:B19" si="1">B3</f>
         <v>Critério 01</v>
       </c>
       <c r="C14" s="6">
         <f>C3/$C$9</f>
-        <v>0.35997120230381568</v>
+        <v>0.5803830528148578</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" ref="D14:D19" si="2">D3/$D$9</f>
-        <v>0.23076923076923078</v>
+        <v>0.64290306450460744</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" ref="E14:E19" si="3">E3/$E$9</f>
-        <v>0.2571575518601063</v>
+        <v>0.75</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" ref="F14:F19" si="4">F3/$F$9</f>
-        <v>0.36363636363636365</v>
+        <v>0.26866072627949672</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ref="G14:G19" si="5">G3/$G$9</f>
-        <v>0.54002160086403461</v>
+        <v>0.36</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" ref="H14:H19" si="6">H3/$H$9</f>
-        <v>0.18365472910927455</v>
+        <v>0.36733194563487204</v>
       </c>
       <c r="J14" s="32" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Critério 02</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" ref="C15:C19" si="7">C4/$C$9</f>
-        <v>6.0115190784737225E-2</v>
+        <v>6.4422518862449207E-2</v>
       </c>
       <c r="D15" s="6">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>7.1433673833845274E-2</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="3"/>
-        <v>8.5719183953368763E-2</v>
+        <f>E4/$E$9</f>
+        <v>4.1625000000000002E-2</v>
       </c>
       <c r="F15" s="6">
         <f t="shared" si="4"/>
-        <v>1.0121212121212121E-2</v>
+        <v>0.13433036313974836</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="5"/>
-        <v>1.9980799231969285E-2</v>
+        <v>0.12</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="6"/>
-        <v>2.0385674931129475E-2</v>
+        <v>0.18366597281743602</v>
       </c>
       <c r="J15" s="34" t="s">
         <v>21</v>
       </c>
       <c r="K15" s="34"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Critério 03</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="7"/>
-        <v>0.11987041036717064</v>
+        <v>9.6923969820081252E-2</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <f>D5/$D$9</f>
+        <v>0.21430102150153582</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="3"/>
-        <v>8.5719183953368763E-2</v>
+        <v>0.125</v>
       </c>
       <c r="F16" s="6">
         <f t="shared" si="4"/>
-        <v>0.18181818181818182</v>
+        <v>0.26866072627949672</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="5"/>
-        <v>0.18000720028801157</v>
+        <v>0.12</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="6"/>
-        <v>3.0670339761248853E-2</v>
+        <v>0.36733194563487204</v>
       </c>
       <c r="J16" s="12" t="str">
         <f>B3</f>
@@ -1272,37 +1250,37 @@
       </c>
       <c r="K16" s="11">
         <f>C24</f>
-        <v>0.32253511309047089</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.49487979820563899</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Critério 04</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="7"/>
-        <v>6.0115190784737225E-2</v>
+        <v>9.6923969820081252E-2</v>
       </c>
       <c r="D17" s="6">
         <f t="shared" si="2"/>
-        <v>0.23076923076923078</v>
+        <v>2.3787413386670477E-2</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="3"/>
-        <v>2.8544488256471798E-2</v>
+        <v>2.0875000000000001E-2</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="4"/>
-        <v>6.0606060606060608E-2</v>
+        <v>4.4776787713249458E-2</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="5"/>
-        <v>0.18000720028801157</v>
+        <v>0.12</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="6"/>
-        <v>3.0670339761248853E-2</v>
+        <v>1.0224072486837273E-2</v>
       </c>
       <c r="J17" s="12" t="str">
         <f>B4</f>
@@ -1310,37 +1288,37 @@
       </c>
       <c r="K17" s="11">
         <f>C25</f>
-        <v>3.9130599913992557E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.10257958810891314</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Critério 05</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="7"/>
-        <v>3.9956803455723541E-2</v>
+        <v>6.4422518862449207E-2</v>
       </c>
       <c r="D18" s="6">
         <f t="shared" si="2"/>
-        <v>0.11538461538461539</v>
+        <v>2.3787413386670477E-2</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="3"/>
-        <v>2.8544488256471798E-2</v>
+        <v>4.1625000000000002E-2</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="4"/>
-        <v>2.0181818181818183E-2</v>
+        <v>1.4910670308512069E-2</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="5"/>
-        <v>6.0002400096003855E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="6"/>
-        <v>0.55096418732782371</v>
+        <v>1.0224072486837273E-2</v>
       </c>
       <c r="J18" s="12" t="str">
         <f>B5</f>
@@ -1348,37 +1326,37 @@
       </c>
       <c r="K18" s="11">
         <f>C26</f>
-        <v>0.10609114244158668</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.19870294387266432</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Critério 06</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="7"/>
-        <v>0.35997120230381568</v>
+        <v>9.6923969820081252E-2</v>
       </c>
       <c r="D19" s="6">
         <f t="shared" si="2"/>
-        <v>0.34615384615384615</v>
+        <v>2.3787413386670477E-2</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="3"/>
-        <v>0.51431510372021261</v>
+        <v>2.0875000000000001E-2</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="4"/>
-        <v>0.36363636363636365</v>
+        <v>0.26866072627949672</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="5"/>
-        <v>1.9980799231969285E-2</v>
+        <v>0.24</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="6"/>
-        <v>0.18365472910927455</v>
+        <v>6.1221990939145342E-2</v>
       </c>
       <c r="J19" s="12" t="str">
         <f>B6</f>
@@ -1386,20 +1364,20 @@
       </c>
       <c r="K19" s="11">
         <f>C27</f>
-        <v>9.8452085077626816E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>5.2764540567806412E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" ref="C20:H20" si="8">SUM(C14:C19)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="D20" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="8"/>
@@ -1407,11 +1385,11 @@
       </c>
       <c r="F20" s="6">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="8"/>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="8"/>
@@ -1424,20 +1402,20 @@
       </c>
       <c r="K20" s="11">
         <f t="shared" ref="K20:K21" si="10">C28</f>
-        <v>0.13583905211707606</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>3.2494945840744839E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="J21" s="12" t="str">
         <f t="shared" si="9"/>
         <v>Critério 06</v>
       </c>
       <c r="K21" s="11">
         <f t="shared" si="10"/>
-        <v>0.29795200735924698</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.1185781834042323</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
@@ -1454,97 +1432,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="33" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="33"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="str">
         <f t="shared" ref="B24:B29" si="11">B3</f>
         <v>Critério 01</v>
       </c>
       <c r="C24" s="10">
-        <f>AVERAGE(C14:H14)</f>
-        <v>0.32253511309047089</v>
+        <f t="shared" ref="C24:C29" si="12">AVERAGE(C14:H14)</f>
+        <v>0.49487979820563899</v>
       </c>
       <c r="D24" s="11">
         <f>AVERAGE(C14:H14)</f>
-        <v>0.32253511309047089</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>0.49487979820563899</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="str">
         <f t="shared" si="11"/>
         <v>Critério 02</v>
       </c>
       <c r="C25" s="10">
-        <f>AVERAGE(C15:H15)</f>
-        <v>3.9130599913992557E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.10257958810891314</v>
       </c>
       <c r="D25" s="11">
-        <f t="shared" ref="D25:D29" si="12">AVERAGE(C15:H15)</f>
-        <v>3.9130599913992557E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D25:D29" si="13">AVERAGE(C15:H15)</f>
+        <v>0.10257958810891314</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="19" t="str">
         <f t="shared" si="11"/>
         <v>Critério 03</v>
       </c>
       <c r="C26" s="10">
-        <f>AVERAGE(C16:H16)</f>
-        <v>0.10609114244158668</v>
+        <f t="shared" si="12"/>
+        <v>0.19870294387266432</v>
       </c>
       <c r="D26" s="11">
-        <f t="shared" si="12"/>
-        <v>0.10609114244158668</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.19870294387266432</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="19" t="str">
         <f t="shared" si="11"/>
         <v>Critério 04</v>
       </c>
       <c r="C27" s="10">
-        <f>AVERAGE(C17:H17)</f>
-        <v>9.8452085077626816E-2</v>
+        <f t="shared" si="12"/>
+        <v>5.2764540567806412E-2</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="12"/>
-        <v>9.8452085077626816E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>5.2764540567806412E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="19" t="str">
         <f t="shared" si="11"/>
         <v>Critério 05</v>
       </c>
       <c r="C28" s="10">
-        <f>AVERAGE(C18:H18)</f>
-        <v>0.13583905211707606</v>
+        <f t="shared" si="12"/>
+        <v>3.2494945840744839E-2</v>
       </c>
       <c r="D28" s="11">
-        <f t="shared" si="12"/>
-        <v>0.13583905211707606</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>3.2494945840744839E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="19" t="str">
         <f t="shared" si="11"/>
         <v>Critério 06</v>
       </c>
       <c r="C29" s="10">
-        <f>AVERAGE(C19:H19)</f>
-        <v>0.29795200735924698</v>
+        <f t="shared" si="12"/>
+        <v>0.1185781834042323</v>
       </c>
       <c r="D29" s="11">
-        <f t="shared" si="12"/>
-        <v>0.29795200735924698</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0.1185781834042323</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C30" s="22">
         <f>SUM(C24:C29)</f>
         <v>1</v>
@@ -1578,32 +1556,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="18" max="18" width="3.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
@@ -1621,9 +1599,9 @@
       <c r="M1" s="21"/>
       <c r="N1" s="21"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="36">
         <v>0.32253511309047089</v>
@@ -1650,7 +1628,7 @@
       </c>
       <c r="N2" s="37"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>24</v>
       </c>
@@ -1658,220 +1636,220 @@
         <v>25</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D3" s="39"/>
       <c r="E3" s="38" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="38" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="38" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J3" s="39"/>
       <c r="K3" s="38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N3" s="39"/>
       <c r="O3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" s="25">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D4" s="26">
         <f>C4*C$2</f>
-        <v>0</v>
+        <v>290.28160178142383</v>
       </c>
       <c r="E4" s="25">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F4" s="26">
         <f>E4*E$2</f>
-        <v>39.130599913992555</v>
+        <v>27.39141993979479</v>
       </c>
       <c r="G4" s="25">
-        <v>1000</v>
+        <v>750</v>
       </c>
       <c r="H4" s="26">
         <f>G4*G$2</f>
-        <v>106.09114244158668</v>
+        <v>79.568356831190016</v>
       </c>
       <c r="I4" s="25">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="J4" s="26">
         <f>I4*I$2</f>
-        <v>49.22604253881341</v>
+        <v>59.071251046576087</v>
       </c>
       <c r="K4" s="25">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="L4" s="26">
         <f>K4*K$2</f>
-        <v>67.919526058538025</v>
+        <v>95.087336481953244</v>
       </c>
       <c r="M4" s="25">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="N4" s="26">
         <f>M4*M$2</f>
-        <v>148.97600367962349</v>
+        <v>238.36160588739759</v>
       </c>
       <c r="O4" s="16">
         <f>D4+F4+H4+J4</f>
-        <v>194.44778489439264</v>
+        <v>456.3126295989847</v>
       </c>
       <c r="Q4" s="15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C5" s="25">
-        <v>500</v>
+        <v>850</v>
       </c>
       <c r="D5" s="26">
         <f>C5*C$2</f>
-        <v>161.26755654523544</v>
+        <v>274.15484612690028</v>
       </c>
       <c r="E5" s="25">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" ref="F5:F14" si="0">E5*E$2</f>
-        <v>9.7826499784981387</v>
+        <v>25.434889944095161</v>
       </c>
       <c r="G5" s="25">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" ref="H5:H14" si="1">G5*G$2</f>
-        <v>79.568356831190016</v>
+        <v>84.872913953269347</v>
       </c>
       <c r="I5" s="25">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="J5" s="26">
         <f t="shared" ref="J5:J13" si="2">I5*I$2</f>
-        <v>24.613021269406705</v>
+        <v>49.22604253881341</v>
       </c>
       <c r="K5" s="25">
-        <v>250</v>
+        <v>600</v>
       </c>
       <c r="L5" s="26">
         <f t="shared" ref="L5:L13" si="3">K5*K$2</f>
-        <v>33.959763029269013</v>
+        <v>81.503431270245642</v>
       </c>
       <c r="M5" s="25">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="N5" s="26">
         <f t="shared" ref="N5:N13" si="4">M5*M$2</f>
-        <v>74.488001839811744</v>
+        <v>268.15680662332227</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" ref="O5:O13" si="5">D5+F5+H5+J5</f>
-        <v>275.23158462433031</v>
+        <v>433.68869256307823</v>
       </c>
       <c r="Q5" s="15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>3</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C6" s="25">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="D6" s="26">
         <f t="shared" ref="D6:D14" si="6">C6*C$2</f>
-        <v>0</v>
+        <v>306.40835743594732</v>
       </c>
       <c r="E6" s="25">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" si="0"/>
-        <v>9.7826499784981387</v>
+        <v>35.217539922593303</v>
       </c>
       <c r="G6" s="25">
-        <v>250</v>
+        <v>950</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>26.522785610396671</v>
+        <v>100.78658531950735</v>
       </c>
       <c r="I6" s="25">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="J6" s="26">
         <f t="shared" si="2"/>
-        <v>24.613021269406705</v>
+        <v>68.916459554338772</v>
       </c>
       <c r="K6" s="25">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="3"/>
-        <v>33.959763029269013</v>
+        <v>108.67124169366085</v>
       </c>
       <c r="M6" s="25">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="N6" s="26">
         <f t="shared" si="4"/>
-        <v>74.488001839811744</v>
+        <v>208.56640515147288</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="5"/>
-        <v>60.918456858301511</v>
+        <v>511.32894223238674</v>
       </c>
       <c r="Q6" s="15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" s="25">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="D7" s="26">
         <f t="shared" si="6"/>
-        <v>241.90133481785318</v>
+        <v>258.02809047237673</v>
       </c>
       <c r="E7" s="25">
         <v>750</v>
@@ -1881,18 +1859,18 @@
         <v>29.34794993549442</v>
       </c>
       <c r="G7" s="25">
-        <v>1000</v>
+        <v>850</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>106.09114244158668</v>
+        <v>90.177471075348677</v>
       </c>
       <c r="I7" s="25">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="2"/>
-        <v>73.839063808220118</v>
+        <v>63.993855300457433</v>
       </c>
       <c r="K7" s="25">
         <v>750</v>
@@ -1902,61 +1880,61 @@
         <v>101.87928908780704</v>
       </c>
       <c r="M7" s="25">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="N7" s="26">
         <f t="shared" si="4"/>
-        <v>223.46400551943523</v>
+        <v>193.66880478351055</v>
       </c>
       <c r="O7" s="16">
         <f t="shared" si="5"/>
-        <v>451.17949100315434</v>
+        <v>441.54736678367726</v>
       </c>
       <c r="Q7" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C8" s="25">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="D8" s="26">
         <f t="shared" si="6"/>
-        <v>32.253511309047092</v>
+        <v>241.90133481785318</v>
       </c>
       <c r="E8" s="25">
-        <v>750</v>
+        <v>800</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="0"/>
-        <v>29.34794993549442</v>
+        <v>31.304479931194045</v>
       </c>
       <c r="G8" s="25">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>26.522785610396671</v>
+        <v>95.482028197428008</v>
       </c>
       <c r="I8" s="25">
-        <v>750</v>
+        <v>600</v>
       </c>
       <c r="J8" s="26">
         <f t="shared" si="2"/>
-        <v>73.839063808220118</v>
+        <v>59.071251046576087</v>
       </c>
       <c r="K8" s="25">
-        <v>750</v>
+        <v>850</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="3"/>
-        <v>101.87928908780704</v>
+        <v>115.46319429951465</v>
       </c>
       <c r="M8" s="25">
         <v>750</v>
@@ -1967,298 +1945,234 @@
       </c>
       <c r="O8" s="16">
         <f t="shared" si="5"/>
-        <v>161.9633106631583</v>
+        <v>427.75909399305135</v>
       </c>
       <c r="Q8" s="15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="25">
-        <v>750</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="26">
         <f t="shared" si="6"/>
-        <v>241.90133481785318</v>
-      </c>
-      <c r="E9" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="26">
         <f t="shared" si="0"/>
-        <v>39.130599913992555</v>
-      </c>
-      <c r="G9" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="25"/>
       <c r="H9" s="26">
         <f t="shared" si="1"/>
-        <v>106.09114244158668</v>
-      </c>
-      <c r="I9" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="25"/>
       <c r="J9" s="26">
         <f t="shared" si="2"/>
-        <v>49.22604253881341</v>
-      </c>
-      <c r="K9" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K9" s="25"/>
       <c r="L9" s="26">
         <f t="shared" si="3"/>
-        <v>67.919526058538025</v>
-      </c>
-      <c r="M9" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M9" s="25"/>
       <c r="N9" s="26">
         <f t="shared" si="4"/>
-        <v>148.97600367962349</v>
+        <v>0</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="5"/>
-        <v>436.34911971224585</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="25">
-        <v>750</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="26">
         <f t="shared" si="6"/>
-        <v>241.90133481785318</v>
-      </c>
-      <c r="E10" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="26">
         <f t="shared" si="0"/>
-        <v>19.565299956996277</v>
-      </c>
-      <c r="G10" s="25">
-        <v>750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G10" s="25"/>
       <c r="H10" s="26">
         <f t="shared" si="1"/>
-        <v>79.568356831190016</v>
-      </c>
-      <c r="I10" s="25">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="25"/>
       <c r="J10" s="26">
         <f t="shared" si="2"/>
-        <v>24.613021269406705</v>
-      </c>
-      <c r="K10" s="25">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" s="25"/>
       <c r="L10" s="26">
         <f t="shared" si="3"/>
-        <v>33.959763029269013</v>
-      </c>
-      <c r="M10" s="25">
-        <v>250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" s="25"/>
       <c r="N10" s="26">
         <f t="shared" si="4"/>
-        <v>74.488001839811744</v>
+        <v>0</v>
       </c>
       <c r="O10" s="16">
         <f t="shared" si="5"/>
-        <v>365.64801287544623</v>
-      </c>
-      <c r="Q10" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="25">
-        <v>750</v>
-      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="26">
         <f t="shared" si="6"/>
-        <v>241.90133481785318</v>
-      </c>
-      <c r="E11" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="26">
         <f t="shared" si="0"/>
-        <v>39.130599913992555</v>
-      </c>
-      <c r="G11" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G11" s="25"/>
       <c r="H11" s="26">
         <f t="shared" si="1"/>
-        <v>106.09114244158668</v>
-      </c>
-      <c r="I11" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="25"/>
       <c r="J11" s="26">
         <f t="shared" si="2"/>
-        <v>98.452085077626819</v>
-      </c>
-      <c r="K11" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K11" s="25"/>
       <c r="L11" s="26">
         <f t="shared" si="3"/>
-        <v>135.83905211707605</v>
-      </c>
-      <c r="M11" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M11" s="25"/>
       <c r="N11" s="26">
         <f t="shared" si="4"/>
-        <v>297.95200735924698</v>
+        <v>0</v>
       </c>
       <c r="O11" s="16">
         <f t="shared" si="5"/>
-        <v>485.57516225105923</v>
-      </c>
-      <c r="Q11" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="25">
-        <v>250</v>
-      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="26">
         <f t="shared" si="6"/>
-        <v>80.633778272617718</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E12" s="25"/>
       <c r="F12" s="26">
         <f t="shared" si="0"/>
-        <v>39.130599913992555</v>
-      </c>
-      <c r="G12" s="25">
-        <v>750</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G12" s="25"/>
       <c r="H12" s="26">
         <f t="shared" si="1"/>
-        <v>79.568356831190016</v>
-      </c>
-      <c r="I12" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="25"/>
       <c r="J12" s="26">
         <f t="shared" si="2"/>
-        <v>49.22604253881341</v>
-      </c>
-      <c r="K12" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="25"/>
       <c r="L12" s="26">
         <f t="shared" si="3"/>
-        <v>67.919526058538025</v>
-      </c>
-      <c r="M12" s="25">
-        <v>500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M12" s="25"/>
       <c r="N12" s="26">
         <f t="shared" si="4"/>
-        <v>148.97600367962349</v>
+        <v>0</v>
       </c>
       <c r="O12" s="16">
         <f t="shared" si="5"/>
-        <v>248.55877755661371</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="25">
         <f>C12*$C$2</f>
-        <v>80.633778272617718</v>
+        <v>0</v>
       </c>
       <c r="D13" s="26">
         <f t="shared" si="6"/>
-        <v>26.007224794070712</v>
+        <v>0</v>
       </c>
       <c r="E13" s="25">
         <f>E12*$C$2</f>
-        <v>322.53511309047087</v>
+        <v>0</v>
       </c>
       <c r="F13" s="26">
         <f t="shared" si="0"/>
-        <v>12.62099246855756</v>
+        <v>0</v>
       </c>
       <c r="G13" s="25">
         <f>G12*$C$2</f>
-        <v>241.90133481785318</v>
+        <v>0</v>
       </c>
       <c r="H13" s="26">
         <f t="shared" si="1"/>
-        <v>25.663588968970814</v>
+        <v>0</v>
       </c>
       <c r="I13" s="25">
         <f>I12*$C$2</f>
-        <v>161.26755654523544</v>
+        <v>0</v>
       </c>
       <c r="J13" s="26">
         <f t="shared" si="2"/>
-        <v>15.877127197252513</v>
+        <v>0</v>
       </c>
       <c r="K13" s="25">
         <f>K12*$C$2</f>
-        <v>161.26755654523544</v>
+        <v>0</v>
       </c>
       <c r="L13" s="26">
         <f t="shared" si="3"/>
-        <v>21.906432018341746</v>
+        <v>0</v>
       </c>
       <c r="M13" s="25">
         <f>M12*$C$2</f>
-        <v>161.26755654523544</v>
+        <v>0</v>
       </c>
       <c r="N13" s="26">
         <f t="shared" si="4"/>
-        <v>48.049992194573768</v>
+        <v>0</v>
       </c>
       <c r="O13" s="16">
         <f t="shared" si="5"/>
-        <v>80.168933428851602</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="C14" s="13" t="e">
         <f>#REF!*$C$2</f>
         <v>#REF!</v>
@@ -2300,118 +2214,102 @@
       <c r="N14" s="13"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>26</v>
+      <c r="B18" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="C18" s="17">
         <v>56000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>37</v>
+      <c r="B19" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="17">
         <v>386000</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>35</v>
+      <c r="B20" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="17">
         <v>950000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>4</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="27">
         <v>1460000</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>5</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C22" s="17">
         <v>180000</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>6</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="17">
-        <v>880000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>7</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="17">
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>8</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="17">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>9</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="17">
-        <v>2450000</v>
-      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="A18:C26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:C26">
     <sortCondition ref="A18:A26"/>
   </sortState>
   <mergeCells count="13">

--- a/AHP/3_AHP_Template.xlsx
+++ b/AHP/3_AHP_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gestao-de-Portfolios\AHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D33AA1-0347-4261-8E47-2EF75B8DC90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42CA957-F3DA-4EB8-9953-F3BD12DAF4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Avaliação</t>
   </si>
@@ -172,6 +172,21 @@
   </si>
   <si>
     <t>Plataforma de treinamento para equipes de desenvolvimento</t>
+  </si>
+  <si>
+    <t>R$ 3,000,000</t>
+  </si>
+  <si>
+    <t>R$ 2,000,000</t>
+  </si>
+  <si>
+    <t>R$ 2,500,000</t>
+  </si>
+  <si>
+    <t>RS 1,500,000</t>
+  </si>
+  <si>
+    <t>R$ 1,000,000</t>
   </si>
 </sst>
 </file>
@@ -358,7 +373,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -403,6 +418,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -433,8 +450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -497,10 +513,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,7 +816,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -821,12 +833,12 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
     </row>
@@ -948,7 +960,7 @@
       <c r="C5" s="6">
         <v>0.16700000000000001</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="30">
         <v>3</v>
       </c>
       <c r="E5" s="5">
@@ -1115,12 +1127,12 @@
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
     </row>
@@ -1176,10 +1188,10 @@
         <f t="shared" ref="H14:H19" si="6">H3/$H$9</f>
         <v>0.36733194563487204</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="str">
@@ -1210,10 +1222,10 @@
         <f t="shared" si="6"/>
         <v>0.18366597281743602</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="str">
@@ -1419,12 +1431,12 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="K22" s="18">
@@ -1433,10 +1445,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="33"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="19" t="str">
@@ -1557,7 +1569,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,14 +1594,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
@@ -1603,30 +1615,36 @@
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="36">
-        <v>0.32253511309047089</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36">
-        <v>3.9130599913992557E-2</v>
-      </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36">
-        <v>0.10609114244158668</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="36">
-        <v>9.8452085077626816E-2</v>
-      </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="36">
-        <v>0.13583905211707606</v>
-      </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="36">
-        <v>0.29795200735924698</v>
-      </c>
-      <c r="N2" s="37"/>
+      <c r="C2" s="38">
+        <f>'Critérios '!K16</f>
+        <v>0.49487979820563899</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38">
+        <f>'Critérios '!K17</f>
+        <v>0.10257958810891314</v>
+      </c>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38">
+        <f>'Critérios '!K18</f>
+        <v>0.19870294387266432</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="38">
+        <f>'Critérios '!K19</f>
+        <v>5.2764540567806412E-2</v>
+      </c>
+      <c r="J2" s="39"/>
+      <c r="K2" s="38">
+        <f>'Critérios '!K20</f>
+        <v>3.2494945840744839E-2</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="38">
+        <f>'Critérios '!K21</f>
+        <v>0.1185781834042323</v>
+      </c>
+      <c r="N2" s="39"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -1635,30 +1653,30 @@
       <c r="B3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="41"/>
+      <c r="I3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="38" t="s">
+      <c r="L3" s="41"/>
+      <c r="M3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="39"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="15" t="s">
         <v>27</v>
       </c>
@@ -1678,46 +1696,46 @@
       </c>
       <c r="D4" s="26">
         <f>C4*C$2</f>
-        <v>290.28160178142383</v>
+        <v>445.39181838507511</v>
       </c>
       <c r="E4" s="25">
         <v>700</v>
       </c>
       <c r="F4" s="26">
         <f>E4*E$2</f>
-        <v>27.39141993979479</v>
+        <v>71.805711676239198</v>
       </c>
       <c r="G4" s="25">
         <v>750</v>
       </c>
       <c r="H4" s="26">
         <f>G4*G$2</f>
-        <v>79.568356831190016</v>
+        <v>149.02720790449825</v>
       </c>
       <c r="I4" s="25">
         <v>600</v>
       </c>
       <c r="J4" s="26">
         <f>I4*I$2</f>
-        <v>59.071251046576087</v>
+        <v>31.658724340683847</v>
       </c>
       <c r="K4" s="25">
         <v>700</v>
       </c>
       <c r="L4" s="26">
         <f>K4*K$2</f>
-        <v>95.087336481953244</v>
+        <v>22.746462088521387</v>
       </c>
       <c r="M4" s="25">
         <v>800</v>
       </c>
       <c r="N4" s="26">
         <f>M4*M$2</f>
-        <v>238.36160588739759</v>
+        <v>94.862546723385847</v>
       </c>
       <c r="O4" s="16">
-        <f>D4+F4+H4+J4</f>
-        <v>456.3126295989847</v>
+        <f>D4+F4+H4+J4+L4+N4</f>
+        <v>815.49247111840373</v>
       </c>
       <c r="Q4" s="15">
         <v>2</v>
@@ -1735,49 +1753,49 @@
       </c>
       <c r="D5" s="26">
         <f>C5*C$2</f>
-        <v>274.15484612690028</v>
+        <v>420.64782847479313</v>
       </c>
       <c r="E5" s="25">
         <v>650</v>
       </c>
       <c r="F5" s="26">
         <f t="shared" ref="F5:F14" si="0">E5*E$2</f>
-        <v>25.434889944095161</v>
+        <v>66.676732270793536</v>
       </c>
       <c r="G5" s="25">
         <v>800</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" ref="H5:H14" si="1">G5*G$2</f>
-        <v>84.872913953269347</v>
+        <v>158.96235509813147</v>
       </c>
       <c r="I5" s="25">
         <v>500</v>
       </c>
       <c r="J5" s="26">
         <f t="shared" ref="J5:J13" si="2">I5*I$2</f>
-        <v>49.22604253881341</v>
+        <v>26.382270283903207</v>
       </c>
       <c r="K5" s="25">
         <v>600</v>
       </c>
       <c r="L5" s="26">
         <f t="shared" ref="L5:L13" si="3">K5*K$2</f>
-        <v>81.503431270245642</v>
+        <v>19.496967504446904</v>
       </c>
       <c r="M5" s="25">
         <v>900</v>
       </c>
       <c r="N5" s="26">
         <f t="shared" ref="N5:N13" si="4">M5*M$2</f>
-        <v>268.15680662332227</v>
+        <v>106.72036506380907</v>
       </c>
       <c r="O5" s="16">
-        <f t="shared" ref="O5:O13" si="5">D5+F5+H5+J5</f>
-        <v>433.68869256307823</v>
+        <f t="shared" ref="O5:O8" si="5">D5+F5+H5+J5+L5+N5</f>
+        <v>798.88651869587727</v>
       </c>
       <c r="Q5" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1792,46 +1810,46 @@
       </c>
       <c r="D6" s="26">
         <f t="shared" ref="D6:D14" si="6">C6*C$2</f>
-        <v>306.40835743594732</v>
+        <v>470.13580829535704</v>
       </c>
       <c r="E6" s="25">
         <v>900</v>
       </c>
       <c r="F6" s="26">
         <f t="shared" si="0"/>
-        <v>35.217539922593303</v>
+        <v>92.321629298021833</v>
       </c>
       <c r="G6" s="25">
         <v>950</v>
       </c>
       <c r="H6" s="26">
         <f t="shared" si="1"/>
-        <v>100.78658531950735</v>
+        <v>188.76779667903111</v>
       </c>
       <c r="I6" s="25">
         <v>700</v>
       </c>
       <c r="J6" s="26">
         <f t="shared" si="2"/>
-        <v>68.916459554338772</v>
+        <v>36.93517839746449</v>
       </c>
       <c r="K6" s="25">
         <v>800</v>
       </c>
       <c r="L6" s="26">
         <f t="shared" si="3"/>
-        <v>108.67124169366085</v>
+        <v>25.99595667259587</v>
       </c>
       <c r="M6" s="25">
         <v>700</v>
       </c>
       <c r="N6" s="26">
         <f t="shared" si="4"/>
-        <v>208.56640515147288</v>
+        <v>83.004728382962611</v>
       </c>
       <c r="O6" s="16">
         <f t="shared" si="5"/>
-        <v>511.32894223238674</v>
+        <v>897.16109772543302</v>
       </c>
       <c r="Q6" s="15">
         <v>1</v>
@@ -1849,49 +1867,49 @@
       </c>
       <c r="D7" s="26">
         <f t="shared" si="6"/>
-        <v>258.02809047237673</v>
+        <v>395.9038385645112</v>
       </c>
       <c r="E7" s="25">
         <v>750</v>
       </c>
       <c r="F7" s="26">
         <f t="shared" si="0"/>
-        <v>29.34794993549442</v>
+        <v>76.934691081684861</v>
       </c>
       <c r="G7" s="25">
         <v>850</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="1"/>
-        <v>90.177471075348677</v>
+        <v>168.89750229176468</v>
       </c>
       <c r="I7" s="25">
         <v>650</v>
       </c>
       <c r="J7" s="26">
         <f t="shared" si="2"/>
-        <v>63.993855300457433</v>
+        <v>34.296951369074165</v>
       </c>
       <c r="K7" s="25">
         <v>750</v>
       </c>
       <c r="L7" s="26">
         <f t="shared" si="3"/>
-        <v>101.87928908780704</v>
+        <v>24.371209380558629</v>
       </c>
       <c r="M7" s="25">
         <v>650</v>
       </c>
       <c r="N7" s="26">
         <f t="shared" si="4"/>
-        <v>193.66880478351055</v>
+        <v>77.075819212751</v>
       </c>
       <c r="O7" s="16">
         <f t="shared" si="5"/>
-        <v>441.54736678367726</v>
+        <v>777.48001190034449</v>
       </c>
       <c r="Q7" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1906,49 +1924,49 @@
       </c>
       <c r="D8" s="26">
         <f t="shared" si="6"/>
-        <v>241.90133481785318</v>
+        <v>371.15984865422922</v>
       </c>
       <c r="E8" s="25">
         <v>800</v>
       </c>
       <c r="F8" s="26">
         <f t="shared" si="0"/>
-        <v>31.304479931194045</v>
+        <v>82.063670487130508</v>
       </c>
       <c r="G8" s="25">
         <v>900</v>
       </c>
       <c r="H8" s="26">
         <f t="shared" si="1"/>
-        <v>95.482028197428008</v>
+        <v>178.83264948539789</v>
       </c>
       <c r="I8" s="25">
         <v>600</v>
       </c>
       <c r="J8" s="26">
         <f t="shared" si="2"/>
-        <v>59.071251046576087</v>
+        <v>31.658724340683847</v>
       </c>
       <c r="K8" s="25">
         <v>850</v>
       </c>
       <c r="L8" s="26">
         <f t="shared" si="3"/>
-        <v>115.46319429951465</v>
+        <v>27.620703964633112</v>
       </c>
       <c r="M8" s="25">
         <v>750</v>
       </c>
       <c r="N8" s="26">
         <f t="shared" si="4"/>
-        <v>223.46400551943523</v>
+        <v>88.933637553174222</v>
       </c>
       <c r="O8" s="16">
         <f t="shared" si="5"/>
-        <v>427.75909399305135</v>
+        <v>780.26923448524883</v>
       </c>
       <c r="Q8" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O5:O13" si="7">D9+F9+H9+J9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="15"/>
@@ -2028,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q10" s="15"/>
@@ -2069,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q11" s="15"/>
@@ -2110,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q12" s="15"/>
@@ -2167,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q13" s="15"/>
@@ -2229,33 +2247,33 @@
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="17">
-        <v>56000</v>
+      <c r="C18" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="17">
-        <v>386000</v>
+      <c r="C19" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>3</v>
       </c>
-      <c r="B20" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="17">
-        <v>950000</v>
+      <c r="B20" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -2263,28 +2281,27 @@
         <v>4</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="27">
-        <v>1460000</v>
+        <v>45</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>5</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="17">
-        <v>180000</v>
+      <c r="B22" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>6</v>
       </c>
-      <c r="B23" s="15"/>
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
